--- a/medicine/Enfance/Pascale_Petit_(écrivain)/Pascale_Petit_(écrivain).xlsx
+++ b/medicine/Enfance/Pascale_Petit_(écrivain)/Pascale_Petit_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pascale_Petit_(%C3%A9crivain)</t>
+          <t>Pascale_Petit_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pascale Petit est une écrivaine française.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pascale_Petit_(%C3%A9crivain)</t>
+          <t>Pascale_Petit_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarquée par des lecteurs aussi pointus qu’Henri Deluy qui l’a par deux fois publiée et l’a invitée au comité de rédaction d’Action poétique, ou François Bon qui l’a accueillie dans la collection qu’il a dirigée au Seuil, elle est l’auteur de textes aux statuts très différents, mais qui tous cherchent à montrer une réalité décalée (Gérard Noiret. La Quinzaine littéraire[source insuffisante].)
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pascale_Petit_(%C3%A9crivain)</t>
+          <t>Pascale_Petit_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Paris-Barcelone, ed Noir&amp;blanc, 1996
 Les Sirènes, ed Derrière la salle de bain, 1996
@@ -573,17 +589,85 @@
 I love you mon biniou, L'Ecole des Loisirs, 2018.
 Poïpoï, Centre de Créations pour l'Enfance de Tinqueux, coll. « Petit VA! », 2020.
 L'Audace, Éditions Nous, 2020.
-Pas de printemps pour acapulco, Série discrète, 2022[1].
-Construction d'un igloo. Editions Lanskine, 2024.
-Objets littéraires
-Poème urbain (une conception de Claudie Lenzi) éd. Plaine Page. 2009. (Dans le cadre du projet Tor-Ups – résidence d’écriture à Rambouillet.)
+Pas de printemps pour acapulco, Série discrète, 2022.
+Construction d'un igloo. Editions Lanskine, 2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pascale_Petit_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascale_Petit_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Objets littéraires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Poème urbain (une conception de Claudie Lenzi) éd. Plaine Page. 2009. (Dans le cadre du projet Tor-Ups – résidence d’écriture à Rambouillet.)
 Lettres d'amour (Dans le cadre du projet Tor-Ups – résidence d’écriture à Rambouillet.)
 Marcher sur la Lune, à quoi ça sert dans la vie ? Affiches dans la rue (Projet Tor-Ups)
 Les 24/36/40 coups : boîtes de  jeu édité par le Centre de Créations pour l'Enfance de Tinqueux, 2021.
 Esartulinoc, Livret-jeu réalisé avec la revue Dada (mise en page et typographie de Gaby Bazin) pour le Festival Lecture par Nature  (Métropole-Aix-Marseille-Provence), 2023.
-Superplumes, (mis en page et typographie de Gaby Bazin) journal coordonné par la revue Dada pour le Festival Lecture par Nature (Métropole-Aix-Marseille-Provence), 2024.
-Publication en anthologies / ouvrages collectifs
-Syros-Alternatives (Les meilleures nouvelles de l'année 90-91).
+Superplumes, (mis en page et typographie de Gaby Bazin) journal coordonné par la revue Dada pour le Festival Lecture par Nature (Métropole-Aix-Marseille-Provence), 2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pascale_Petit_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascale_Petit_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication en anthologies / ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Syros-Alternatives (Les meilleures nouvelles de l'année 90-91).
 Nathan (Le Français en Troisième -1993 - nouvelle).
 Prometeo (été 97 - Colombie : "anthologie" de jeunes poètes français + collaboration à l'ensemble du numéro pour la traduction).
 Tarabuste. Anthologie-TRIAGE. We must wait until the sun rises ("poésie"). 2002.
@@ -596,9 +680,43 @@
 Silvana editoriale. Catalogue de l’exposition La forêt de mon rêve. 2010.
 Des poètes dans la nature. Ed. de L'Amandier. 2011.
 Constelación de poetas francófonas de cinco continentes (Diez siglos). Espejo De Viento. (Mexico). 2011
-Gare Maritime. Anthologie écrite et sonore de poésie contemporaine. 2020.
-En revues
-Nyx (n°13 – nouvelle - 1990).
+Gare Maritime. Anthologie écrite et sonore de poésie contemporaine. 2020.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pascale_Petit_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascale_Petit_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>En revues</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nyx (n°13 – nouvelle - 1990).
 Stop (n°123 - Québec - nouvelle).
 Trois (Vol 8 - n°2. Vol 10 - n°1 &amp; 2 Vol 11 n°1-2 - Québec -poésie).
 Sapriphage (n°26 - nouvelle).
@@ -618,9 +736,43 @@
 Bacchanales n°62. Maison de la Poésie Rhône-Alpes. 2019.
 La première chose que je peux vous dire. La Marelle (Marseille). 2019.
 Muscle n°32. 2021.
-Catastrophes n°43. 2024.
-À écouter
-Extraits de : Un peu comme quand vous allez voir les caméléons (textes et musiques) dans l’émission La nuit, la poésie d’Omar Berrada (France Culture 10 juillet 2006).
+Catastrophes n°43. 2024.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pascale_Petit_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pascale_Petit_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>À écouter</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Extraits de : Un peu comme quand vous allez voir les caméléons (textes et musiques) dans l’émission La nuit, la poésie d’Omar Berrada (France Culture 10 juillet 2006).
 CD du projet Tor-Ups dans la rue (- diffusion des ordonnances royales extraites de Manière d’entrer dans un cercle &amp; d’en sortir par haut- parleurs - réalisation Theâtre de la Forge).
 L'équation du nénuphar. Emission par Ouïe-dire. RTBF. 2015</t>
         </is>
